--- a/Physiological Parameters.xlsx
+++ b/Physiological Parameters.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="80" documentId="11_888384EA9184EDB8E3FFD5C332CBCC336B95D339" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82F5E57C-B951-41BE-961B-27718FB287C6}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="11_888384EA9184EDB8E3FFD5C332CBCC336B95D339" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C50020E8-41B3-45B5-96E2-16DB266436E4}"/>
   <bookViews>
-    <workbookView xWindow="7155" yWindow="2985" windowWidth="21570" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8910" yWindow="3045" windowWidth="21570" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>Subject No.</t>
   </si>
@@ -101,6 +101,15 @@
   </si>
   <si>
     <t>subject 14</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
 </sst>
 </file>
@@ -185,6 +194,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -450,617 +463,662 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="20.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="23.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="27.42578125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="13.7109375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="20.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="23.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="27.42578125" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1">
         <v>175</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>56</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>880</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>900</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>100</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>101</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>69</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>71</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>470</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>520</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="4" customFormat="1">
+    <row r="3" spans="1:14" s="4" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3">
         <v>170.5</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>63.64</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>840</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>850</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>100</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>103</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>64</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>66</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>490</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1">
         <v>183.5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>69.52</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>940</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>930</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>108</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>106</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>72</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>76</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>540</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>550</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1">
         <v>163</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>47.76</v>
-      </c>
-      <c r="D5" s="1">
-        <v>800</v>
       </c>
       <c r="E5" s="1">
         <v>800</v>
       </c>
       <c r="F5" s="1">
+        <v>800</v>
+      </c>
+      <c r="G5" s="1">
         <v>96</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>92.5</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>60.5</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>62.5</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>450</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>440</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1">
         <v>162</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>50.9</v>
-      </c>
-      <c r="D6" s="1">
-        <v>840</v>
       </c>
       <c r="E6" s="1">
         <v>840</v>
       </c>
       <c r="F6" s="1">
-        <v>98</v>
+        <v>840</v>
       </c>
       <c r="G6" s="1">
         <v>98</v>
       </c>
       <c r="H6" s="1">
+        <v>98</v>
+      </c>
+      <c r="I6" s="1">
         <v>65.599999999999994</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>66</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>470</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>450</v>
-      </c>
-      <c r="L6" s="2">
-        <v>68</v>
       </c>
       <c r="M6" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1">
         <v>176</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>62.32</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>890</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>910</v>
-      </c>
-      <c r="F7" s="1">
-        <v>106</v>
       </c>
       <c r="G7" s="1">
         <v>106</v>
       </c>
       <c r="H7" s="1">
+        <v>106</v>
+      </c>
+      <c r="I7" s="1">
         <v>66.5</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>67</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>510</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>510</v>
-      </c>
-      <c r="L7" s="2">
-        <v>90</v>
       </c>
       <c r="M7" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1">
         <v>169</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>67.5</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>880</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>910</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>117</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>116</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>62.5</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>64</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>500</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>500</v>
-      </c>
-      <c r="L8" s="2">
-        <v>78</v>
       </c>
       <c r="M8" s="2">
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1">
         <v>165</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>60</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>830</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>840</v>
-      </c>
-      <c r="F9" s="1">
-        <v>105</v>
       </c>
       <c r="G9" s="1">
         <v>105</v>
       </c>
       <c r="H9" s="1">
+        <v>105</v>
+      </c>
+      <c r="I9" s="1">
         <v>65</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>0</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>480</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>480</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>78</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1">
         <v>178</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>63.8</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>880</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>890</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>107</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>105.5</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>73</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>76</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>480</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>490</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>80</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1">
         <v>174</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>60</v>
-      </c>
-      <c r="D11" s="1">
-        <v>860</v>
       </c>
       <c r="E11" s="1">
         <v>860</v>
       </c>
       <c r="F11" s="1">
+        <v>860</v>
+      </c>
+      <c r="G11" s="1">
         <v>102</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>101.5</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>70.5</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>66</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>490</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>485</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>80.5</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1">
         <v>163</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>56.8</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>850</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>845</v>
-      </c>
-      <c r="F12" s="1">
-        <v>105</v>
       </c>
       <c r="G12" s="1">
         <v>105</v>
       </c>
       <c r="H12" s="1">
+        <v>105</v>
+      </c>
+      <c r="I12" s="1">
         <v>68</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>67.5</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>470</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <v>480</v>
-      </c>
-      <c r="L12" s="2">
-        <v>74</v>
       </c>
       <c r="M12" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1">
         <v>158</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>55.2</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>820</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>800</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>107</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>106</v>
-      </c>
-      <c r="H13" s="1">
-        <v>63</v>
       </c>
       <c r="I13" s="1">
         <v>63</v>
       </c>
       <c r="J13" s="1">
+        <v>63</v>
+      </c>
+      <c r="K13" s="1">
         <v>450</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>450</v>
-      </c>
-      <c r="L13" s="2">
-        <v>70</v>
       </c>
       <c r="M13" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1">
         <v>175</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>69.680000000000007</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>885</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>900</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>110</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>108</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>68.5</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>67</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>500</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <v>510</v>
       </c>
-      <c r="L14" s="2">
+      <c r="M14" s="2">
         <v>74</v>
       </c>
-      <c r="M14" s="2">
+      <c r="N14" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1">
         <v>175</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>60.86</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>860</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>890</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>100</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>102</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>62</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>63.5</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>500</v>
       </c>
-      <c r="K15" s="2">
+      <c r="L15" s="2">
         <v>500</v>
       </c>
-      <c r="L15" s="2">
+      <c r="M15" s="2">
         <v>80</v>
       </c>
-      <c r="M15" s="2">
+      <c r="N15" s="2">
         <v>80</v>
       </c>
     </row>
